--- a/data_year/zb/批发和零售业/连锁零售企业/按行业分连锁零售企业商品销售额.xlsx
+++ b/data_year/zb/批发和零售业/连锁零售企业/按行业分连锁零售企业商品销售额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,545 +483,409 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.83580000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>221.5883</v>
+        <v>437.3</v>
       </c>
       <c r="D2" t="n">
-        <v>1377.1484</v>
+        <v>1768.8</v>
       </c>
       <c r="E2" t="n">
-        <v>67.53570000000001</v>
+        <v>376.8</v>
       </c>
       <c r="F2" t="n">
-        <v>17.5595</v>
+        <v>14.9</v>
       </c>
       <c r="G2" t="n">
-        <v>2664.7966</v>
+        <v>6228.6</v>
       </c>
       <c r="H2" t="n">
-        <v>73.6241</v>
+        <v>255.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4546.7231</v>
+        <v>10789.9</v>
       </c>
       <c r="J2" t="n">
-        <v>76.8507</v>
+        <v>214.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.7501</v>
+        <v>86.95626</v>
       </c>
       <c r="C3" t="n">
-        <v>252.2954</v>
+        <v>501.73109</v>
       </c>
       <c r="D3" t="n">
-        <v>1848.4302</v>
+        <v>3891.11428</v>
       </c>
       <c r="E3" t="n">
-        <v>65.8811</v>
+        <v>273.91009</v>
       </c>
       <c r="F3" t="n">
-        <v>11.1059</v>
+        <v>68.37936000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>2105.2907</v>
+        <v>7542.73634</v>
       </c>
       <c r="H3" t="n">
-        <v>232.6049</v>
+        <v>339.52435</v>
       </c>
       <c r="I3" t="n">
-        <v>5162.3823</v>
+        <v>10733.72263</v>
       </c>
       <c r="J3" t="n">
-        <v>97.24039999999999</v>
+        <v>222.64213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.08627</v>
+        <v>63.97934</v>
       </c>
       <c r="C4" t="n">
-        <v>309.06111</v>
+        <v>638.38567</v>
       </c>
       <c r="D4" t="n">
-        <v>2178.094</v>
+        <v>3407.70729</v>
       </c>
       <c r="E4" t="n">
-        <v>139.54611</v>
+        <v>266.87546</v>
       </c>
       <c r="F4" t="n">
-        <v>3.11212</v>
+        <v>12.76018</v>
       </c>
       <c r="G4" t="n">
-        <v>1934.20039</v>
+        <v>6231.23482</v>
       </c>
       <c r="H4" t="n">
-        <v>205.71775</v>
+        <v>369.48267</v>
       </c>
       <c r="I4" t="n">
-        <v>5660.64833</v>
+        <v>11446.75756</v>
       </c>
       <c r="J4" t="n">
-        <v>110.20033</v>
+        <v>255.62483</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.25091</v>
+        <v>67.90600000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>375.08918</v>
+        <v>782.5316</v>
       </c>
       <c r="D5" t="n">
-        <v>2553.28119</v>
+        <v>3352.6046</v>
       </c>
       <c r="E5" t="n">
-        <v>180.70828</v>
+        <v>453.3887</v>
       </c>
       <c r="F5" t="n">
-        <v>3.76509</v>
+        <v>15.2518</v>
       </c>
       <c r="G5" t="n">
-        <v>2542.42583</v>
+        <v>6568.2434</v>
       </c>
       <c r="H5" t="n">
-        <v>267.25876</v>
+        <v>376.6699</v>
       </c>
       <c r="I5" t="n">
-        <v>6715.60794</v>
+        <v>12569.1284</v>
       </c>
       <c r="J5" t="n">
-        <v>138.34389</v>
+        <v>294.3522</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.9346</v>
+        <v>62.918</v>
       </c>
       <c r="C6" t="n">
-        <v>417.9016</v>
+        <v>1208.4638</v>
       </c>
       <c r="D6" t="n">
-        <v>1517.6914</v>
+        <v>2191.8586</v>
       </c>
       <c r="E6" t="n">
-        <v>351.276</v>
+        <v>484.4575</v>
       </c>
       <c r="F6" t="n">
-        <v>75.56100000000001</v>
+        <v>10.6176</v>
       </c>
       <c r="G6" t="n">
-        <v>5879.6173</v>
+        <v>6736.2736</v>
       </c>
       <c r="H6" t="n">
-        <v>222.8314</v>
+        <v>433.2248</v>
       </c>
       <c r="I6" t="n">
-        <v>9111.873100000001</v>
+        <v>12471.7225</v>
       </c>
       <c r="J6" t="n">
-        <v>253.5114</v>
+        <v>307.4802</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.40000000000001</v>
+        <v>67.6618</v>
       </c>
       <c r="C7" t="n">
-        <v>437.3</v>
+        <v>988.8622</v>
       </c>
       <c r="D7" t="n">
-        <v>1768.8</v>
+        <v>3650.9619</v>
       </c>
       <c r="E7" t="n">
-        <v>376.8</v>
+        <v>516.4701</v>
       </c>
       <c r="F7" t="n">
-        <v>14.9</v>
+        <v>7.587</v>
       </c>
       <c r="G7" t="n">
-        <v>6228.6</v>
+        <v>5575.2487</v>
       </c>
       <c r="H7" t="n">
-        <v>255.5</v>
+        <v>463.3253</v>
       </c>
       <c r="I7" t="n">
-        <v>10789.9</v>
+        <v>13027.4365</v>
       </c>
       <c r="J7" t="n">
-        <v>214.4</v>
+        <v>351.3088</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.95626</v>
+        <v>75.72280000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>501.73109</v>
+        <v>1142.5646</v>
       </c>
       <c r="D8" t="n">
-        <v>3891.11428</v>
+        <v>3968.0497</v>
       </c>
       <c r="E8" t="n">
-        <v>273.91009</v>
+        <v>556.2211</v>
       </c>
       <c r="F8" t="n">
-        <v>68.37936000000001</v>
+        <v>9.9703</v>
       </c>
       <c r="G8" t="n">
-        <v>7542.73634</v>
+        <v>5267.9845</v>
       </c>
       <c r="H8" t="n">
-        <v>339.52435</v>
+        <v>520.5025000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>10733.72263</v>
+        <v>13173.7116</v>
       </c>
       <c r="J8" t="n">
-        <v>222.64213</v>
+        <v>448.6815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63.97934</v>
+        <v>85.74250000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>638.38567</v>
+        <v>1588.5965</v>
       </c>
       <c r="D9" t="n">
-        <v>3407.70729</v>
+        <v>3569.6506</v>
       </c>
       <c r="E9" t="n">
-        <v>266.87546</v>
+        <v>615.5659000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>12.76018</v>
+        <v>12.3737</v>
       </c>
       <c r="G9" t="n">
-        <v>6231.23482</v>
+        <v>6095.5431</v>
       </c>
       <c r="H9" t="n">
-        <v>369.48267</v>
+        <v>692.5465</v>
       </c>
       <c r="I9" t="n">
-        <v>11446.75756</v>
+        <v>13070.3768</v>
       </c>
       <c r="J9" t="n">
-        <v>255.62483</v>
+        <v>488.3937</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.90600000000001</v>
+        <v>83.27970000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>782.5316</v>
+        <v>1677.2075</v>
       </c>
       <c r="D10" t="n">
-        <v>3352.6046</v>
+        <v>3723.333</v>
       </c>
       <c r="E10" t="n">
-        <v>453.3887</v>
+        <v>891.3185</v>
       </c>
       <c r="F10" t="n">
-        <v>15.2518</v>
+        <v>39.5297</v>
       </c>
       <c r="G10" t="n">
-        <v>6568.2434</v>
+        <v>6787.7853</v>
       </c>
       <c r="H10" t="n">
-        <v>376.6699</v>
+        <v>1314.3686</v>
       </c>
       <c r="I10" t="n">
-        <v>12569.1284</v>
+        <v>13180.5108</v>
       </c>
       <c r="J10" t="n">
-        <v>294.3522</v>
+        <v>470.3116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.918</v>
+        <v>82.7402</v>
       </c>
       <c r="C11" t="n">
-        <v>1208.4638</v>
+        <v>2077.3941</v>
       </c>
       <c r="D11" t="n">
-        <v>2191.8586</v>
+        <v>3149.0463</v>
       </c>
       <c r="E11" t="n">
-        <v>484.4575</v>
+        <v>915.0155999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>10.6176</v>
+        <v>20.2945</v>
       </c>
       <c r="G11" t="n">
-        <v>6736.2736</v>
+        <v>6621.4482</v>
       </c>
       <c r="H11" t="n">
-        <v>433.2248</v>
+        <v>1448.0225</v>
       </c>
       <c r="I11" t="n">
-        <v>12471.7225</v>
+        <v>12901.1727</v>
       </c>
       <c r="J11" t="n">
-        <v>307.4802</v>
+        <v>500.9352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67.6618</v>
+        <v>136.2071</v>
       </c>
       <c r="C12" t="n">
-        <v>988.8622</v>
+        <v>2466.1097</v>
       </c>
       <c r="D12" t="n">
-        <v>3650.9619</v>
+        <v>3088.7455</v>
       </c>
       <c r="E12" t="n">
-        <v>516.4701</v>
+        <v>813.4225</v>
       </c>
       <c r="F12" t="n">
-        <v>7.587</v>
+        <v>19.1392</v>
       </c>
       <c r="G12" t="n">
-        <v>5575.2487</v>
+        <v>5476.8818</v>
       </c>
       <c r="H12" t="n">
-        <v>463.3253</v>
+        <v>1338.153</v>
       </c>
       <c r="I12" t="n">
-        <v>13027.4365</v>
+        <v>12240.2467</v>
       </c>
       <c r="J12" t="n">
-        <v>351.3088</v>
+        <v>398.5253</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.72280000000001</v>
+        <v>155.6589</v>
       </c>
       <c r="C13" t="n">
-        <v>1142.5646</v>
+        <v>2600.2281</v>
       </c>
       <c r="D13" t="n">
-        <v>3968.0497</v>
+        <v>3637.6865</v>
       </c>
       <c r="E13" t="n">
-        <v>556.2211</v>
+        <v>1125.3502</v>
       </c>
       <c r="F13" t="n">
-        <v>9.9703</v>
+        <v>7.8029</v>
       </c>
       <c r="G13" t="n">
-        <v>5267.9845</v>
+        <v>7168.3363</v>
       </c>
       <c r="H13" t="n">
-        <v>520.5025000000001</v>
+        <v>1689.7343</v>
       </c>
       <c r="I13" t="n">
-        <v>13173.7116</v>
+        <v>12867.2589</v>
       </c>
       <c r="J13" t="n">
-        <v>448.6815</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>85.74250000000001</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1588.5965</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3569.6506</v>
-      </c>
-      <c r="E14" t="n">
-        <v>615.5659000000001</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12.3737</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6095.5431</v>
-      </c>
-      <c r="H14" t="n">
-        <v>692.5465</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13070.3768</v>
-      </c>
-      <c r="J14" t="n">
-        <v>488.3937</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>83.27970000000001</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1677.2075</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3723.333</v>
-      </c>
-      <c r="E15" t="n">
-        <v>891.3185</v>
-      </c>
-      <c r="F15" t="n">
-        <v>39.5297</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6787.7853</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1314.3686</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13180.5108</v>
-      </c>
-      <c r="J15" t="n">
-        <v>470.3116</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>82.7402</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2077.3941</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3149.0463</v>
-      </c>
-      <c r="E16" t="n">
-        <v>915.0155999999999</v>
-      </c>
-      <c r="F16" t="n">
-        <v>20.2945</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6621.4482</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1448.0225</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12901.1727</v>
-      </c>
-      <c r="J16" t="n">
-        <v>500.9352</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>136.2071</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2466.1097</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3088.7455</v>
-      </c>
-      <c r="E17" t="n">
-        <v>813.4225</v>
-      </c>
-      <c r="F17" t="n">
-        <v>19.1392</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5476.8818</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1338.153</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12240.2467</v>
-      </c>
-      <c r="J17" t="n">
-        <v>398.5253</v>
+        <v>460.7987</v>
       </c>
     </row>
   </sheetData>
